--- a/Appendix E Intake Form Template.xlsx
+++ b/Appendix E Intake Form Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mitre.sharepoint.com/sites/strengthening-accountability-for-state-it-investments-project/Shared Documents/Tasks 3 and 4 Leadership and Project Management/SMC SMDL Materials/CLEARANCE PACKAGE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASTRAIT\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="13_ncr:1_{D99CEA33-D872-EB49-9F2A-B096694C90FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A9C2C4F-8D90-477B-A7AD-E96BEC99F777}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE2DB06-C1E3-459E-AFE3-A0F6E9BD70FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29160" yWindow="465" windowWidth="27405" windowHeight="15000" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions for Enhanced Funding" sheetId="7" r:id="rId1"/>
@@ -1149,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1278,10 +1278,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1301,9 +1297,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,7 +1343,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1679,36 +1672,36 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="34" style="7" customWidth="1"/>
-    <col min="2" max="3" width="47.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="62.625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="47.08203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="62.58203125" style="8" customWidth="1"/>
     <col min="5" max="5" width="45.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="28.375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="29.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="29.08203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="29.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="38.375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="44.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="44.08203125" style="8" customWidth="1"/>
     <col min="11" max="11" width="45.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="21.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="8" customWidth="1"/>
     <col min="13" max="13" width="22.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="25.125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="25.08203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="45" customFormat="1" ht="31.5">
+    <row r="1" spans="1:14" ht="31">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="38" t="s">
@@ -1726,7 +1719,7 @@
       <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="38" t="s">
@@ -1745,14 +1738,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="26" customFormat="1" ht="203.1" customHeight="1">
+    <row r="2" spans="1:14" s="26" customFormat="1" ht="203.15" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="31" t="s">
@@ -1768,7 +1761,7 @@
       <c r="H2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="52" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="31" t="s">
@@ -1785,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="47.25">
+    <row r="3" spans="1:14" ht="46.5">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1802,10 +1795,10 @@
       <c r="J3" s="20"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="22"/>
-    </row>
-    <row r="4" spans="1:14" ht="63">
+      <c r="M3" s="21"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" ht="62">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1816,16 +1809,16 @@
       <c r="D4" s="14"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="10"/>
       <c r="J4" s="14"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="1:14" ht="78.75">
+      <c r="M4" s="4"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" ht="77.5">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1836,16 +1829,16 @@
       <c r="D5" s="14"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="10"/>
       <c r="J5" s="14"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="51"/>
-    </row>
-    <row r="6" spans="1:14" ht="47.25">
+      <c r="M5" s="4"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" ht="46.5">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1856,16 +1849,16 @@
       <c r="D6" s="14"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="10"/>
       <c r="J6" s="14"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" spans="1:14" ht="31.5">
+      <c r="M6" s="4"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" ht="31">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1876,16 +1869,16 @@
       <c r="D7" s="14"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="10"/>
       <c r="J7" s="14"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="51"/>
-    </row>
-    <row r="8" spans="1:14" ht="94.5">
+      <c r="M7" s="4"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" ht="93">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1896,16 +1889,16 @@
       <c r="D8" s="14"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="10"/>
       <c r="J8" s="14"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="51"/>
-    </row>
-    <row r="9" spans="1:14" ht="31.5">
+      <c r="M8" s="4"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" ht="31">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1916,16 +1909,16 @@
       <c r="D9" s="14"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
       <c r="I9" s="10"/>
       <c r="J9" s="14"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="51"/>
-    </row>
-    <row r="10" spans="1:14" ht="78.75">
+      <c r="M9" s="4"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="77.5">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1936,16 +1929,16 @@
       <c r="D10" s="14"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
       <c r="I10" s="10"/>
       <c r="J10" s="14"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="51"/>
-    </row>
-    <row r="11" spans="1:14" ht="47.25">
+      <c r="M10" s="4"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" ht="46.5">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1956,16 +1949,16 @@
       <c r="D11" s="14"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
       <c r="I11" s="10"/>
       <c r="J11" s="14"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="51"/>
-    </row>
-    <row r="12" spans="1:14" ht="94.5">
+      <c r="M11" s="4"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" ht="93">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1976,16 +1969,16 @@
       <c r="D12" s="14"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6"/>
       <c r="I12" s="10"/>
       <c r="J12" s="14"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="51"/>
-    </row>
-    <row r="13" spans="1:14" ht="31.5">
+      <c r="M12" s="4"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" ht="31">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -1996,16 +1989,16 @@
       <c r="D13" s="14"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="10"/>
       <c r="J13" s="14"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="51"/>
-    </row>
-    <row r="14" spans="1:14" ht="204.75">
+      <c r="M13" s="4"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" ht="201.5">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -2016,16 +2009,16 @@
       <c r="D14" s="14"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="10"/>
       <c r="J14" s="14"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="51"/>
-    </row>
-    <row r="15" spans="1:14" ht="31.5">
+      <c r="M14" s="4"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" ht="31">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -2036,16 +2029,16 @@
       <c r="D15" s="14"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="10"/>
       <c r="J15" s="14"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="51"/>
-    </row>
-    <row r="16" spans="1:14" ht="63">
+      <c r="M15" s="4"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" ht="62">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -2056,16 +2049,16 @@
       <c r="D16" s="14"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="10"/>
       <c r="J16" s="14"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="51"/>
-    </row>
-    <row r="17" spans="1:14" ht="63">
+      <c r="M16" s="4"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" ht="62">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -2076,16 +2069,16 @@
       <c r="D17" s="14"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="10"/>
       <c r="J17" s="14"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="51"/>
-    </row>
-    <row r="18" spans="1:14" ht="110.25">
+      <c r="M17" s="4"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" ht="108.5">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -2096,16 +2089,16 @@
       <c r="D18" s="14"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="10"/>
       <c r="J18" s="14"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="51"/>
-    </row>
-    <row r="19" spans="1:14" ht="78.75">
+      <c r="M18" s="4"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" ht="77.5">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2116,16 +2109,16 @@
       <c r="D19" s="14"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="10"/>
       <c r="J19" s="14"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="51"/>
-    </row>
-    <row r="20" spans="1:14" ht="94.5">
+      <c r="M19" s="4"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14" ht="93">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2136,16 +2129,16 @@
       <c r="D20" s="14"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="10"/>
       <c r="J20" s="14"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="51"/>
-    </row>
-    <row r="21" spans="1:14" ht="47.25">
+      <c r="M20" s="4"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" ht="46.5">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -2156,16 +2149,16 @@
       <c r="D21" s="14"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="10"/>
       <c r="J21" s="14"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="51"/>
-    </row>
-    <row r="22" spans="1:14" ht="78.75">
+      <c r="M21" s="4"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" ht="77.5">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -2176,16 +2169,16 @@
       <c r="D22" s="14"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="10"/>
       <c r="J22" s="14"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="51"/>
-    </row>
-    <row r="23" spans="1:14" ht="78.75">
+      <c r="M22" s="4"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" ht="77.5">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -2196,16 +2189,16 @@
       <c r="D23" s="14"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="10"/>
       <c r="J23" s="14"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="51"/>
-    </row>
-    <row r="24" spans="1:14" ht="79.5" thickBot="1">
+      <c r="M23" s="4"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" ht="78" thickBot="1">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -2216,14 +2209,14 @@
       <c r="D24" s="15"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="12"/>
       <c r="J24" s="15"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="53"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2"/>
@@ -2238,8 +2231,8 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="52"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="5"/>
@@ -2254,8 +2247,8 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="51"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="49"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5"/>
@@ -2270,8 +2263,8 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="51"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5"/>
@@ -2286,8 +2279,8 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="51"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5"/>
@@ -2302,8 +2295,8 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="51"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="5"/>
@@ -2318,8 +2311,8 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="51"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="49"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="5"/>
@@ -2334,8 +2327,8 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="51"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="49"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="5"/>
@@ -2350,8 +2343,8 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="51"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="49"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="5"/>
@@ -2366,8 +2359,8 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="51"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="49"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="5"/>
@@ -2382,8 +2375,8 @@
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="51"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="49"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="5"/>
@@ -2398,8 +2391,8 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="51"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="49"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="5"/>
@@ -2414,8 +2407,8 @@
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="51"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="49"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="5"/>
@@ -2430,8 +2423,8 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="51"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="49"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="5"/>
@@ -2446,8 +2439,8 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="51"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="49"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="5"/>
@@ -2462,8 +2455,8 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="51"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="5"/>
@@ -2478,8 +2471,8 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="51"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="49"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="5"/>
@@ -2494,8 +2487,8 @@
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="51"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="49"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="5"/>
@@ -2510,8 +2503,8 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="51"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="49"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="5"/>
@@ -2526,8 +2519,8 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="51"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="49"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="5"/>
@@ -2542,8 +2535,8 @@
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="51"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="49"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="5"/>
@@ -2558,8 +2551,8 @@
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="51"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="49"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="5"/>
@@ -2574,8 +2567,8 @@
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="51"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="49"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="5"/>
@@ -2590,8 +2583,8 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="51"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="49"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="5"/>
@@ -2606,8 +2599,8 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="51"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="49"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="5"/>
@@ -2622,8 +2615,8 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="51"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="49"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="5"/>
@@ -2638,8 +2631,8 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="51"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="49"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="5"/>
@@ -2654,8 +2647,8 @@
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="51"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="49"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="5"/>
@@ -2670,8 +2663,8 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="51"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="49"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="5"/>
@@ -2686,8 +2679,8 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="51"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="49"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="5"/>
@@ -2702,8 +2695,8 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="51"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="49"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="5"/>
@@ -2718,8 +2711,8 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="51"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="49"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="5"/>
@@ -2734,8 +2727,8 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="51"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="49"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="5"/>
@@ -2750,8 +2743,8 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="46"/>
-      <c r="N57" s="51"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="49"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="5"/>
@@ -2766,8 +2759,8 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="46"/>
-      <c r="N58" s="51"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="49"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="5"/>
@@ -2782,8 +2775,8 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="51"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="49"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="5"/>
@@ -2798,8 +2791,8 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
-      <c r="M60" s="46"/>
-      <c r="N60" s="51"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="49"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="5"/>
@@ -2814,8 +2807,8 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="51"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="49"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="5"/>
@@ -2830,8 +2823,8 @@
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="51"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="49"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="5"/>
@@ -2846,8 +2839,8 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="51"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="49"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="5"/>
@@ -2862,8 +2855,8 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="51"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="49"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="5"/>
@@ -2878,8 +2871,8 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="51"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="49"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="5"/>
@@ -2894,8 +2887,8 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
-      <c r="M66" s="46"/>
-      <c r="N66" s="51"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="49"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="5"/>
@@ -2910,8 +2903,8 @@
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
-      <c r="M67" s="46"/>
-      <c r="N67" s="51"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="49"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="5"/>
@@ -2926,8 +2919,8 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="51"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="49"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="5"/>
@@ -2942,8 +2935,8 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="51"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="49"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="5"/>
@@ -2958,8 +2951,8 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="51"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="49"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="5"/>
@@ -2974,8 +2967,8 @@
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="51"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="49"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5"/>
@@ -2990,8 +2983,8 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="51"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="49"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5"/>
@@ -3006,8 +2999,8 @@
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
-      <c r="M73" s="46"/>
-      <c r="N73" s="51"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="49"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="5"/>
@@ -3022,8 +3015,8 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
-      <c r="M74" s="46"/>
-      <c r="N74" s="51"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="49"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5"/>
@@ -3038,8 +3031,8 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="51"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="49"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="5"/>
@@ -3054,8 +3047,8 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="51"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="49"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="5"/>
@@ -3070,8 +3063,8 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="51"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="49"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="5"/>
@@ -3086,8 +3079,8 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="51"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="49"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="5"/>
@@ -3102,8 +3095,8 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="46"/>
-      <c r="N79" s="51"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="49"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="5"/>
@@ -3118,8 +3111,8 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="51"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="49"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="5"/>
@@ -3134,8 +3127,8 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
-      <c r="M81" s="46"/>
-      <c r="N81" s="51"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="49"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="5"/>
@@ -3150,8 +3143,8 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="51"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="49"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="5"/>
@@ -3166,8 +3159,8 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="46"/>
-      <c r="N83" s="51"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="49"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="5"/>
@@ -3182,8 +3175,8 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="51"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="49"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="5"/>
@@ -3198,8 +3191,8 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="51"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="49"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="5"/>
@@ -3214,8 +3207,8 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="46"/>
-      <c r="N86" s="51"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="49"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="5"/>
@@ -3230,8 +3223,8 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="46"/>
-      <c r="N87" s="51"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="49"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="5"/>
@@ -3246,8 +3239,8 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="51"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="49"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="5"/>
@@ -3262,8 +3255,8 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="46"/>
-      <c r="N89" s="51"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="49"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="5"/>
@@ -3278,8 +3271,8 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="51"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="49"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="5"/>
@@ -3294,8 +3287,8 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="51"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="49"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="5"/>
@@ -3310,8 +3303,8 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="51"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="49"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="5"/>
@@ -3326,8 +3319,8 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="51"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="49"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="5"/>
@@ -3342,8 +3335,8 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="46"/>
-      <c r="N94" s="51"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="49"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="5"/>
@@ -3358,8 +3351,8 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="51"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="49"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="5"/>
@@ -3374,8 +3367,8 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="51"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="49"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="5"/>
@@ -3390,8 +3383,8 @@
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="51"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="49"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="5"/>
@@ -3406,8 +3399,8 @@
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
-      <c r="M98" s="46"/>
-      <c r="N98" s="51"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="49"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="5"/>
@@ -3422,8 +3415,8 @@
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
-      <c r="M99" s="46"/>
-      <c r="N99" s="51"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="49"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="5"/>
@@ -3438,8 +3431,8 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="51"/>
+      <c r="M100" s="44"/>
+      <c r="N100" s="49"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="5"/>
@@ -3454,12 +3447,12 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
-      <c r="M101" s="46"/>
-      <c r="N101" s="51"/>
+      <c r="M101" s="44"/>
+      <c r="N101" s="49"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101 N3:N101 M2 G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G24 H25:H101 M2:M24 N25:N101" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Evidence Satisfactory, Evidence Not Satisfactory, N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3480,31 +3473,31 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="25.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="8" customWidth="1"/>
-    <col min="3" max="5" width="32.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="8" customWidth="1"/>
+    <col min="3" max="5" width="32.33203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="42" style="8" customWidth="1"/>
-    <col min="7" max="7" width="34.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="34.08203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="37" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="25.125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="31.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="44.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="37.08203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="25.08203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="31.58203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="44.08203125" style="8" customWidth="1"/>
     <col min="13" max="13" width="45.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="35.125" style="8" customWidth="1"/>
-    <col min="15" max="15" width="38.125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="25.125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="35.08203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="38.08203125" style="8" customWidth="1"/>
+    <col min="16" max="16" width="25.08203125" style="8" customWidth="1"/>
     <col min="17" max="17" width="43" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="45" customFormat="1" ht="31.5">
+    <row r="1" spans="1:17" ht="31">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3510,7 @@
       <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="35" t="s">
@@ -3557,7 +3550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="26" customFormat="1" ht="189">
+    <row r="2" spans="1:17" s="26" customFormat="1" ht="217">
       <c r="A2" s="23" t="s">
         <v>52</v>
       </c>
@@ -3570,7 +3563,7 @@
       <c r="D2" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>56</v>
       </c>
       <c r="F2" s="31" t="s">
@@ -3606,15 +3599,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="173.25">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:17" ht="170.5">
+      <c r="A3" s="56" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="46"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="10" t="s">
         <v>69</v>
       </c>
@@ -3631,15 +3624,15 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" ht="47.25">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:17" ht="46.5">
+      <c r="A4" s="57" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="46"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="10" t="s">
         <v>72</v>
       </c>
@@ -3656,15 +3649,15 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="157.5">
-      <c r="A5" s="60" t="s">
+    <row r="5" spans="1:17" ht="155">
+      <c r="A5" s="57" t="s">
         <v>73</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="10" t="s">
         <v>75</v>
       </c>
@@ -3681,15 +3674,15 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:17" ht="78.75">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:17" ht="77.5">
+      <c r="A6" s="58" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="46"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="10" t="s">
         <v>78</v>
       </c>
@@ -3706,15 +3699,15 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:17" ht="173.25">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:17" ht="170.5">
+      <c r="A7" s="57" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="46"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="10" t="s">
         <v>81</v>
       </c>
@@ -3731,15 +3724,15 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="63">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:17" ht="62">
+      <c r="A8" s="57" t="s">
         <v>82</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="46"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="10" t="s">
         <v>84</v>
       </c>
@@ -3756,15 +3749,15 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="78.75">
-      <c r="A9" s="62" t="s">
+    <row r="9" spans="1:17" ht="77.5">
+      <c r="A9" s="59" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="46"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="10" t="s">
         <v>87</v>
       </c>
@@ -3781,15 +3774,15 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="63">
-      <c r="A10" s="62" t="s">
+    <row r="10" spans="1:17" ht="62">
+      <c r="A10" s="59" t="s">
         <v>88</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="46"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="10" t="s">
         <v>90</v>
       </c>
@@ -3806,15 +3799,15 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="63">
-      <c r="A11" s="60" t="s">
+    <row r="11" spans="1:17" ht="62">
+      <c r="A11" s="57" t="s">
         <v>91</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="46"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="10" t="s">
         <v>93</v>
       </c>
@@ -3831,15 +3824,15 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="63">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:17" ht="62">
+      <c r="A12" s="57" t="s">
         <v>94</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="10" t="s">
         <v>93</v>
       </c>
@@ -3856,15 +3849,15 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="63">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:17" ht="62">
+      <c r="A13" s="59" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="46"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="10" t="s">
         <v>98</v>
       </c>
@@ -3881,15 +3874,15 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="78.75">
-      <c r="A14" s="63" t="s">
+    <row r="14" spans="1:17" ht="77.5">
+      <c r="A14" s="60" t="s">
         <v>99</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="10" t="s">
         <v>101</v>
       </c>
@@ -3906,15 +3899,15 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="47.25">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:17" ht="46.5">
+      <c r="A15" s="57" t="s">
         <v>102</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="46"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="10" t="s">
         <v>104</v>
       </c>
@@ -3931,15 +3924,15 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="63">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:17" ht="62">
+      <c r="A16" s="59" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="46"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="10" t="s">
         <v>107</v>
       </c>
@@ -3956,15 +3949,15 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="63">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:17" ht="62">
+      <c r="A17" s="61" t="s">
         <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="46"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="10" t="s">
         <v>110</v>
       </c>
@@ -3981,15 +3974,15 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="110.25">
-      <c r="A18" s="61" t="s">
+    <row r="18" spans="1:17" ht="108.5">
+      <c r="A18" s="58" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="46"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="10" t="s">
         <v>110</v>
       </c>
@@ -4006,15 +3999,15 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="47.25">
-      <c r="A19" s="62" t="s">
+    <row r="19" spans="1:17" ht="46.5">
+      <c r="A19" s="59" t="s">
         <v>113</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="46"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="10" t="s">
         <v>115</v>
       </c>
@@ -4031,15 +4024,15 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="63">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:17" ht="62">
+      <c r="A20" s="58" t="s">
         <v>116</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="10" t="s">
         <v>118</v>
       </c>
@@ -4056,15 +4049,15 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="63">
-      <c r="A21" s="61" t="s">
+    <row r="21" spans="1:17" ht="62">
+      <c r="A21" s="58" t="s">
         <v>119</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="46"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="10" t="s">
         <v>121</v>
       </c>
@@ -4081,15 +4074,15 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="47.25">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:17" ht="46.5">
+      <c r="A22" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="46"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="10" t="s">
         <v>121</v>
       </c>
@@ -4106,15 +4099,15 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="63">
-      <c r="A23" s="62" t="s">
+    <row r="23" spans="1:17" ht="62">
+      <c r="A23" s="59" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="10" t="s">
         <v>126</v>
       </c>
@@ -4131,15 +4124,15 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="94.5">
-      <c r="A24" s="65" t="s">
+    <row r="24" spans="1:17" ht="93">
+      <c r="A24" s="62" t="s">
         <v>127</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="10" t="s">
         <v>129</v>
       </c>
@@ -4156,15 +4149,15 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:17" ht="63">
-      <c r="A25" s="65" t="s">
+    <row r="25" spans="1:17" ht="62">
+      <c r="A25" s="62" t="s">
         <v>130</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="46"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="10" t="s">
         <v>129</v>
       </c>
@@ -4181,15 +4174,15 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" spans="1:17" ht="94.5">
-      <c r="A26" s="66" t="s">
+    <row r="26" spans="1:17" ht="93">
+      <c r="A26" s="63" t="s">
         <v>132</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="46"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="10" t="s">
         <v>129</v>
       </c>
@@ -4206,15 +4199,15 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="1:17" ht="63">
-      <c r="A27" s="62" t="s">
+    <row r="27" spans="1:17" ht="62">
+      <c r="A27" s="59" t="s">
         <v>134</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="46"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="10" t="s">
         <v>129</v>
       </c>
@@ -4231,15 +4224,15 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" spans="1:17" ht="78.75">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:17" ht="77.5">
+      <c r="A28" s="64" t="s">
         <v>136</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="46"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="10" t="s">
         <v>138</v>
       </c>
@@ -4256,15 +4249,15 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" spans="1:17" ht="78.75">
-      <c r="A29" s="62" t="s">
+    <row r="29" spans="1:17" ht="77.5">
+      <c r="A29" s="59" t="s">
         <v>139</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="10" t="s">
         <v>141</v>
       </c>
@@ -4282,10 +4275,10 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="58"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="46"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="10"/>
       <c r="F30" s="32"/>
       <c r="G30" s="6"/>
@@ -4301,10 +4294,10 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="57"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="46"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="10"/>
       <c r="F31" s="32"/>
       <c r="G31" s="6"/>
@@ -4323,7 +4316,7 @@
       <c r="A32" s="9"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="46"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="10"/>
       <c r="F32" s="32"/>
       <c r="G32" s="6"/>
@@ -4342,7 +4335,7 @@
       <c r="A33" s="9"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="46"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="10"/>
       <c r="F33" s="32"/>
       <c r="G33" s="6"/>
@@ -4361,7 +4354,7 @@
       <c r="A34" s="9"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="46"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="10"/>
       <c r="F34" s="32"/>
       <c r="G34" s="6"/>
@@ -4380,7 +4373,7 @@
       <c r="A35" s="9"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="10"/>
       <c r="F35" s="32"/>
       <c r="G35" s="6"/>
@@ -4399,7 +4392,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="46"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="10"/>
       <c r="F36" s="32"/>
       <c r="G36" s="6"/>
@@ -4418,7 +4411,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="46"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="10"/>
       <c r="F37" s="32"/>
       <c r="G37" s="6"/>
@@ -4437,7 +4430,7 @@
       <c r="A38" s="9"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="46"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="10"/>
       <c r="F38" s="32"/>
       <c r="G38" s="6"/>
@@ -4456,7 +4449,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="10"/>
       <c r="F39" s="32"/>
       <c r="G39" s="6"/>
@@ -4475,7 +4468,7 @@
       <c r="A40" s="9"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="46"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="10"/>
       <c r="F40" s="32"/>
       <c r="G40" s="6"/>
@@ -4494,7 +4487,7 @@
       <c r="A41" s="9"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="46"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="10"/>
       <c r="F41" s="32"/>
       <c r="G41" s="6"/>
@@ -4513,7 +4506,7 @@
       <c r="A42" s="9"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="46"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="10"/>
       <c r="F42" s="32"/>
       <c r="G42" s="6"/>
@@ -4532,7 +4525,7 @@
       <c r="A43" s="9"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="46"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="10"/>
       <c r="F43" s="32"/>
       <c r="G43" s="6"/>
@@ -4551,7 +4544,7 @@
       <c r="A44" s="9"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="10"/>
       <c r="F44" s="32"/>
       <c r="G44" s="6"/>
@@ -4570,7 +4563,7 @@
       <c r="A45" s="9"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="46"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="10"/>
       <c r="F45" s="32"/>
       <c r="G45" s="6"/>
@@ -4589,7 +4582,7 @@
       <c r="A46" s="9"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="46"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="10"/>
       <c r="F46" s="32"/>
       <c r="G46" s="6"/>
@@ -4608,7 +4601,7 @@
       <c r="A47" s="9"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
-      <c r="D47" s="46"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="10"/>
       <c r="F47" s="32"/>
       <c r="G47" s="6"/>
@@ -4627,7 +4620,7 @@
       <c r="A48" s="9"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
-      <c r="D48" s="46"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="10"/>
       <c r="F48" s="32"/>
       <c r="G48" s="6"/>
@@ -4646,7 +4639,7 @@
       <c r="A49" s="9"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="46"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="10"/>
       <c r="F49" s="32"/>
       <c r="G49" s="6"/>
@@ -4665,7 +4658,7 @@
       <c r="A50" s="9"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="10"/>
       <c r="F50" s="32"/>
       <c r="G50" s="6"/>
@@ -4684,7 +4677,7 @@
       <c r="A51" s="9"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="46"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="10"/>
       <c r="F51" s="32"/>
       <c r="G51" s="6"/>
@@ -4703,7 +4696,7 @@
       <c r="A52" s="9"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="46"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="10"/>
       <c r="F52" s="32"/>
       <c r="G52" s="6"/>
@@ -4722,7 +4715,7 @@
       <c r="A53" s="9"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="46"/>
+      <c r="D53" s="44"/>
       <c r="E53" s="10"/>
       <c r="F53" s="32"/>
       <c r="G53" s="6"/>
@@ -4741,7 +4734,7 @@
       <c r="A54" s="9"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="46"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="10"/>
       <c r="F54" s="32"/>
       <c r="G54" s="6"/>
@@ -4760,7 +4753,7 @@
       <c r="A55" s="9"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="46"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="10"/>
       <c r="F55" s="32"/>
       <c r="G55" s="6"/>
@@ -4779,7 +4772,7 @@
       <c r="A56" s="9"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="46"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="10"/>
       <c r="F56" s="32"/>
       <c r="G56" s="6"/>
@@ -4798,7 +4791,7 @@
       <c r="A57" s="9"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="46"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="10"/>
       <c r="F57" s="32"/>
       <c r="G57" s="6"/>
@@ -4817,7 +4810,7 @@
       <c r="A58" s="9"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="46"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="10"/>
       <c r="F58" s="32"/>
       <c r="G58" s="6"/>
@@ -4836,7 +4829,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="46"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="10"/>
       <c r="F59" s="32"/>
       <c r="G59" s="6"/>
@@ -4855,7 +4848,7 @@
       <c r="A60" s="9"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="46"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="10"/>
       <c r="F60" s="32"/>
       <c r="G60" s="6"/>
@@ -4874,7 +4867,7 @@
       <c r="A61" s="9"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="46"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="10"/>
       <c r="F61" s="32"/>
       <c r="G61" s="6"/>
@@ -4893,7 +4886,7 @@
       <c r="A62" s="9"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="46"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="10"/>
       <c r="F62" s="32"/>
       <c r="G62" s="6"/>
@@ -4912,7 +4905,7 @@
       <c r="A63" s="9"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="46"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="10"/>
       <c r="F63" s="32"/>
       <c r="G63" s="6"/>
@@ -4931,7 +4924,7 @@
       <c r="A64" s="9"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="46"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="10"/>
       <c r="F64" s="32"/>
       <c r="G64" s="6"/>
@@ -4950,7 +4943,7 @@
       <c r="A65" s="9"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="46"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="10"/>
       <c r="F65" s="32"/>
       <c r="G65" s="6"/>
@@ -4969,7 +4962,7 @@
       <c r="A66" s="9"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="46"/>
+      <c r="D66" s="44"/>
       <c r="E66" s="10"/>
       <c r="F66" s="32"/>
       <c r="G66" s="6"/>
@@ -4988,7 +4981,7 @@
       <c r="A67" s="9"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="46"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="10"/>
       <c r="F67" s="32"/>
       <c r="G67" s="6"/>
@@ -5007,7 +5000,7 @@
       <c r="A68" s="9"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="46"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="10"/>
       <c r="F68" s="32"/>
       <c r="G68" s="6"/>
@@ -5026,7 +5019,7 @@
       <c r="A69" s="9"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="46"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="10"/>
       <c r="F69" s="32"/>
       <c r="G69" s="6"/>
@@ -5045,7 +5038,7 @@
       <c r="A70" s="9"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="46"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="10"/>
       <c r="F70" s="32"/>
       <c r="G70" s="6"/>
@@ -5064,7 +5057,7 @@
       <c r="A71" s="9"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="46"/>
+      <c r="D71" s="44"/>
       <c r="E71" s="10"/>
       <c r="F71" s="32"/>
       <c r="G71" s="6"/>
@@ -5083,7 +5076,7 @@
       <c r="A72" s="9"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="46"/>
+      <c r="D72" s="44"/>
       <c r="E72" s="10"/>
       <c r="F72" s="32"/>
       <c r="G72" s="6"/>
@@ -5102,7 +5095,7 @@
       <c r="A73" s="9"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="46"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="10"/>
       <c r="F73" s="32"/>
       <c r="G73" s="6"/>
@@ -5121,7 +5114,7 @@
       <c r="A74" s="9"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="46"/>
+      <c r="D74" s="44"/>
       <c r="E74" s="10"/>
       <c r="F74" s="32"/>
       <c r="G74" s="6"/>
@@ -5140,7 +5133,7 @@
       <c r="A75" s="9"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="46"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="10"/>
       <c r="F75" s="32"/>
       <c r="G75" s="6"/>
@@ -5159,7 +5152,7 @@
       <c r="A76" s="9"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="46"/>
+      <c r="D76" s="44"/>
       <c r="E76" s="10"/>
       <c r="F76" s="32"/>
       <c r="G76" s="6"/>
@@ -5178,7 +5171,7 @@
       <c r="A77" s="9"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="46"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="10"/>
       <c r="F77" s="32"/>
       <c r="G77" s="6"/>
@@ -5197,7 +5190,7 @@
       <c r="A78" s="9"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="46"/>
+      <c r="D78" s="44"/>
       <c r="E78" s="10"/>
       <c r="F78" s="32"/>
       <c r="G78" s="6"/>
@@ -5216,7 +5209,7 @@
       <c r="A79" s="9"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="46"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="10"/>
       <c r="F79" s="32"/>
       <c r="G79" s="6"/>
@@ -5235,7 +5228,7 @@
       <c r="A80" s="9"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="46"/>
+      <c r="D80" s="44"/>
       <c r="E80" s="10"/>
       <c r="F80" s="32"/>
       <c r="G80" s="6"/>
@@ -5254,7 +5247,7 @@
       <c r="A81" s="9"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="46"/>
+      <c r="D81" s="44"/>
       <c r="E81" s="10"/>
       <c r="F81" s="32"/>
       <c r="G81" s="6"/>
@@ -5273,7 +5266,7 @@
       <c r="A82" s="9"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="46"/>
+      <c r="D82" s="44"/>
       <c r="E82" s="10"/>
       <c r="F82" s="32"/>
       <c r="G82" s="6"/>
@@ -5292,7 +5285,7 @@
       <c r="A83" s="9"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="46"/>
+      <c r="D83" s="44"/>
       <c r="E83" s="10"/>
       <c r="F83" s="32"/>
       <c r="G83" s="6"/>
@@ -5311,7 +5304,7 @@
       <c r="A84" s="9"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
-      <c r="D84" s="46"/>
+      <c r="D84" s="44"/>
       <c r="E84" s="10"/>
       <c r="F84" s="32"/>
       <c r="G84" s="6"/>
@@ -5330,7 +5323,7 @@
       <c r="A85" s="9"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
-      <c r="D85" s="46"/>
+      <c r="D85" s="44"/>
       <c r="E85" s="10"/>
       <c r="F85" s="32"/>
       <c r="G85" s="6"/>
@@ -5349,7 +5342,7 @@
       <c r="A86" s="9"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="46"/>
+      <c r="D86" s="44"/>
       <c r="E86" s="10"/>
       <c r="F86" s="32"/>
       <c r="G86" s="6"/>
@@ -5368,7 +5361,7 @@
       <c r="A87" s="9"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
-      <c r="D87" s="46"/>
+      <c r="D87" s="44"/>
       <c r="E87" s="10"/>
       <c r="F87" s="32"/>
       <c r="G87" s="6"/>
@@ -5387,7 +5380,7 @@
       <c r="A88" s="9"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
-      <c r="D88" s="46"/>
+      <c r="D88" s="44"/>
       <c r="E88" s="10"/>
       <c r="F88" s="32"/>
       <c r="G88" s="6"/>
@@ -5406,7 +5399,7 @@
       <c r="A89" s="9"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="46"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="10"/>
       <c r="F89" s="32"/>
       <c r="G89" s="6"/>
@@ -5425,7 +5418,7 @@
       <c r="A90" s="9"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
-      <c r="D90" s="46"/>
+      <c r="D90" s="44"/>
       <c r="E90" s="10"/>
       <c r="F90" s="32"/>
       <c r="G90" s="6"/>
@@ -5444,7 +5437,7 @@
       <c r="A91" s="9"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
-      <c r="D91" s="46"/>
+      <c r="D91" s="44"/>
       <c r="E91" s="10"/>
       <c r="F91" s="32"/>
       <c r="G91" s="6"/>
@@ -5463,7 +5456,7 @@
       <c r="A92" s="9"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="46"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="10"/>
       <c r="F92" s="32"/>
       <c r="G92" s="6"/>
@@ -5482,7 +5475,7 @@
       <c r="A93" s="9"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
-      <c r="D93" s="46"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="10"/>
       <c r="F93" s="32"/>
       <c r="G93" s="6"/>
@@ -5501,7 +5494,7 @@
       <c r="A94" s="9"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="46"/>
+      <c r="D94" s="44"/>
       <c r="E94" s="10"/>
       <c r="F94" s="32"/>
       <c r="G94" s="6"/>
@@ -5520,7 +5513,7 @@
       <c r="A95" s="9"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
-      <c r="D95" s="46"/>
+      <c r="D95" s="44"/>
       <c r="E95" s="10"/>
       <c r="F95" s="32"/>
       <c r="G95" s="6"/>
@@ -5539,7 +5532,7 @@
       <c r="A96" s="9"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
-      <c r="D96" s="46"/>
+      <c r="D96" s="44"/>
       <c r="E96" s="10"/>
       <c r="F96" s="32"/>
       <c r="G96" s="6"/>
@@ -5558,7 +5551,7 @@
       <c r="A97" s="9"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="46"/>
+      <c r="D97" s="44"/>
       <c r="E97" s="10"/>
       <c r="F97" s="32"/>
       <c r="G97" s="6"/>
@@ -5573,11 +5566,11 @@
       <c r="P97" s="4"/>
       <c r="Q97" s="10"/>
     </row>
-    <row r="98" spans="1:17" ht="16.5" thickBot="1">
+    <row r="98" spans="1:17" ht="16" thickBot="1">
       <c r="A98" s="11"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
-      <c r="D98" s="47"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="12"/>
       <c r="F98" s="33"/>
       <c r="G98" s="16"/>
@@ -5819,6 +5812,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="f04cb0e8-1f31-4a91-ab41-8e319e993d9c">
@@ -5833,23 +5835,40 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3811F003-BBE3-42CC-AB0E-BA8B12310728}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3811F003-BBE3-42CC-AB0E-BA8B12310728}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b8fc669-508a-423e-89ef-947b76949238"/>
+    <ds:schemaRef ds:uri="f04cb0e8-1f31-4a91-ab41-8e319e993d9c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5397248C-63B1-41E1-9530-410BB7BC9273}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F705-8769-4DA8-B2BE-817EFC5E7B1D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C8F705-8769-4DA8-B2BE-817EFC5E7B1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5397248C-63B1-41E1-9530-410BB7BC9273}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f04cb0e8-1f31-4a91-ab41-8e319e993d9c"/>
+    <ds:schemaRef ds:uri="6b8fc669-508a-423e-89ef-947b76949238"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>